--- a/database_excel_files/Camp.xlsx
+++ b/database_excel_files/Camp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0xd1rac\Code\SC2002_Lab_Project\database_excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773EABBB-26CE-476A-8F1F-7D40A4413C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA799B71-B3A8-4BCC-AE1F-6A77CE68C29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10890" windowWidth="18240" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,11 +90,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,13 +381,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
@@ -397,7 +401,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -426,7 +430,7 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>

--- a/database_excel_files/Camp.xlsx
+++ b/database_excel_files/Camp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0xd1rac\Code\Solo_SC2002_OOP_Proj\database_excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0xd1rac\Code\SC2002_Lab_Project\database_excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B35BF8-F8F2-488D-B36A-D4ADE2CDFEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F0EC48-8B23-47BA-A089-3B7A01DD01AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -57,10 +57,10 @@
     <t>description</t>
   </si>
   <si>
-    <t>50ffdf6867de407cad6547c91ddc94a7</t>
-  </si>
-  <si>
-    <t>Summer Camp</t>
+    <t>1cf99d715c0e4befa9fa961a99082246</t>
+  </si>
+  <si>
+    <t>Fourth Camp</t>
   </si>
   <si>
     <t>2023-07-01</t>
@@ -78,52 +78,10 @@
     <t>Camp Description</t>
   </si>
   <si>
-    <t>Winter Camp</t>
-  </si>
-  <si>
-    <t>d0ec9903fd224708a8379cca20c4ce6c</t>
-  </si>
-  <si>
-    <t>Cool Camp</t>
-  </si>
-  <si>
-    <t>Autum Camp</t>
-  </si>
-  <si>
-    <t>2a8c460240864430a286df9dfca1c883</t>
-  </si>
-  <si>
-    <t>First Camp</t>
-  </si>
-  <si>
-    <t>5e2388aadffa4976b502e1546dac56c0</t>
-  </si>
-  <si>
-    <t>Second Camp</t>
-  </si>
-  <si>
-    <t>98891c30fdf540199831d3d2349be568</t>
-  </si>
-  <si>
-    <t>Third Camp</t>
-  </si>
-  <si>
-    <t>b0e73e3c5d1a4e74a6a09e3a6aaf4472</t>
-  </si>
-  <si>
-    <t>Fourth Camp</t>
-  </si>
-  <si>
-    <t>8c17cde3dfb64462af57c60abdd378ac</t>
-  </si>
-  <si>
-    <t>Fifth Camp</t>
-  </si>
-  <si>
-    <t>3ee17da089ed412596910930f77ae0bc</t>
-  </si>
-  <si>
-    <t>Sizth Camp</t>
+    <t>127e29f546724e2faa4dd18a7aa73af4</t>
+  </si>
+  <si>
+    <t>89923331900f4fe8bae819dfb22f1955</t>
   </si>
 </sst>
 </file>
@@ -160,11 +118,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,62 +400,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="59.85546875"/>
-    <col min="2" max="2" customWidth="true" width="56.85546875"/>
-    <col min="3" max="3" customWidth="true" width="55.5703125"/>
-    <col min="5" max="5" customWidth="true" width="22.42578125"/>
-    <col min="6" max="6" customWidth="true" width="21.85546875"/>
-    <col min="9" max="9" customWidth="true" width="59.7109375"/>
-    <col min="10" max="10" customWidth="true" width="64.5703125"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C2" t="b" s="0">
         <v>1</v>
@@ -529,10 +474,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C3" t="b" s="0">
         <v>1</v>
@@ -561,10 +506,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C4" t="b" s="0">
         <v>1</v>
@@ -588,102 +533,6 @@
         <v>10.0</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="C5" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H5" t="n" s="0">
-        <v>100.0</v>
-      </c>
-      <c r="I5" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="J5" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C6" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H6" t="n" s="0">
-        <v>100.0</v>
-      </c>
-      <c r="I6" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="C7" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H7" t="n" s="0">
-        <v>100.0</v>
-      </c>
-      <c r="I7" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="J7" t="s" s="0">
         <v>16</v>
       </c>
     </row>

--- a/database_excel_files/Camp.xlsx
+++ b/database_excel_files/Camp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0xd1rac\Code\SC2002_Lab_Project\database_excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/c220096_e_ntu_edu_sg/Documents/Desktop/SC2002_Lab_Project-YQ1/database_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F0EC48-8B23-47BA-A089-3B7A01DD01AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{84F0EC48-8B23-47BA-A089-3B7A01DD01AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E425DBA4-40BB-45CB-8D13-59EAFBF33B71}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-990" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -57,10 +57,10 @@
     <t>description</t>
   </si>
   <si>
-    <t>1cf99d715c0e4befa9fa961a99082246</t>
-  </si>
-  <si>
-    <t>Fourth Camp</t>
+    <t>aeebf47a69a24d0e863c39e58066d611</t>
+  </si>
+  <si>
+    <t>Fokasdsadsdkok Camp</t>
   </si>
   <si>
     <t>2023-07-01</t>
@@ -78,10 +78,46 @@
     <t>Camp Description</t>
   </si>
   <si>
-    <t>127e29f546724e2faa4dd18a7aa73af4</t>
-  </si>
-  <si>
-    <t>89923331900f4fe8bae819dfb22f1955</t>
+    <t>b6d43c568bb647539135919c8c4eefd0</t>
+  </si>
+  <si>
+    <t>0c2f901a1f0348b49c9769fad9e1f702</t>
+  </si>
+  <si>
+    <t>c840388de3004a1480144eb7370695ba</t>
+  </si>
+  <si>
+    <t>47314cc237fe4507bc2269fdfc4e9772</t>
+  </si>
+  <si>
+    <t>027d823b7ed44ac390eaa7cb17fd2a02</t>
+  </si>
+  <si>
+    <t>fd24f46687d448a296b6786b791388ed</t>
+  </si>
+  <si>
+    <t>0de8b74b4e09469d8cf55e0997e6a701</t>
+  </si>
+  <si>
+    <t>0423df356e6748d3b7f3e0690d78a8a9</t>
+  </si>
+  <si>
+    <t>fcffe2d0a69b4908a3640c18083f84d5</t>
+  </si>
+  <si>
+    <t>039db9e496084ac4bfed88743537bbf6</t>
+  </si>
+  <si>
+    <t>05e5e6f46e454764927d10f9575b5dfb</t>
+  </si>
+  <si>
+    <t>0bef7fa6725e41c5bd0be19523c55739</t>
+  </si>
+  <si>
+    <t>3750072e73a441d89a3f51849b355c9e</t>
+  </si>
+  <si>
+    <t>cbf1a4c4cfd441a7b11d17e750fc15e2</t>
   </si>
 </sst>
 </file>
@@ -135,6 +171,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
         <v>10</v>
       </c>
@@ -462,17 +502,17 @@
       <c r="G2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="H2" t="n" s="0">
-        <v>100.0</v>
-      </c>
-      <c r="I2" t="n" s="0">
-        <v>10.0</v>
+      <c r="H2" s="0">
+        <v>100</v>
+      </c>
+      <c r="I2" s="0">
+        <v>10</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
         <v>17</v>
       </c>
@@ -494,17 +534,17 @@
       <c r="G3" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="H3" t="n" s="0">
-        <v>100.0</v>
-      </c>
-      <c r="I3" t="n" s="0">
-        <v>10.0</v>
+      <c r="H3" s="0">
+        <v>100</v>
+      </c>
+      <c r="I3" s="0">
+        <v>10</v>
       </c>
       <c r="J3" t="s" s="0">
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
         <v>18</v>
       </c>
@@ -526,13 +566,461 @@
       <c r="G4" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="H4" t="n" s="0">
+      <c r="H4" s="0">
+        <v>100</v>
+      </c>
+      <c r="I4" s="0">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C5" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H5" s="0">
+        <v>100</v>
+      </c>
+      <c r="I5" s="0">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C6" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0">
+        <v>100</v>
+      </c>
+      <c r="I6" s="0">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C7" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H7" s="0">
+        <v>100</v>
+      </c>
+      <c r="I7" s="0">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C8" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H8" s="0">
+        <v>100</v>
+      </c>
+      <c r="I8" s="0">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C9" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H9" s="0">
+        <v>100</v>
+      </c>
+      <c r="I9" s="0">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C10" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H10" s="0">
+        <v>100</v>
+      </c>
+      <c r="I10" s="0">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C11" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H11" t="n" s="0">
         <v>100.0</v>
       </c>
-      <c r="I4" t="n" s="0">
+      <c r="I11" t="n" s="0">
         <v>10.0</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J11" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C12" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C13" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C14" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>98.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C15" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>98.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C16" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>98.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C17" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>98.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C18" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>98.0</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J18" t="s" s="0">
         <v>16</v>
       </c>
     </row>

--- a/database_excel_files/Camp.xlsx
+++ b/database_excel_files/Camp.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Camp Description</t>
+  </si>
+  <si>
+    <t>facultyId</t>
+  </si>
+  <si>
+    <t>isOpenToAll</t>
+  </si>
+  <si>
+    <t>a123</t>
   </si>
 </sst>
 </file>
@@ -388,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
@@ -427,6 +436,12 @@
       <c r="J1" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="K1" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
@@ -458,6 +473,12 @@
       </c>
       <c r="J2" t="s" s="0">
         <v>14</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L2" t="b" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/database_excel_files/Camp.xlsx
+++ b/database_excel_files/Camp.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>a123</t>
+  </si>
+  <si>
+    <t>staffId</t>
+  </si>
+  <si>
+    <t>sadfasdfe</t>
   </si>
 </sst>
 </file>
@@ -397,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
@@ -440,6 +446,9 @@
         <v>15</v>
       </c>
       <c r="L1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s" s="0">
         <v>16</v>
       </c>
     </row>
@@ -466,7 +475,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="I2" t="n" s="0">
         <v>10.0</v>
@@ -477,7 +486,10 @@
       <c r="K2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="L2" t="b" s="0">
+      <c r="L2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="M2" t="b" s="0">
         <v>0</v>
       </c>
     </row>

--- a/database_excel_files/Camp.xlsx
+++ b/database_excel_files/Camp.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0xd1rac\Code\SC2002_Lab_Project\database_excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/c220096_e_ntu_edu_sg/Documents/Desktop/SC2002_Lab_Project-main/database_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF604317-EA39-4F33-8D73-DD5B6382DB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AF604317-EA39-4F33-8D73-DD5B6382DB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B19A6F2-D6A4-4E04-8E02-BF453258E972}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="4185" windowWidth="20430" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -57,41 +57,46 @@
     <t>description</t>
   </si>
   <si>
-    <t>1b0327bbb247495a9d93274533ff97e2</t>
-  </si>
-  <si>
-    <t>Fourth Camp</t>
-  </si>
-  <si>
-    <t>2023-11-18</t>
-  </si>
-  <si>
-    <t>Camp Location</t>
-  </si>
-  <si>
-    <t>Camp Description</t>
-  </si>
-  <si>
     <t>facultyId</t>
   </si>
   <si>
     <t>isOpenToAll</t>
   </si>
   <si>
-    <t>a123</t>
-  </si>
-  <si>
     <t>staffId</t>
   </si>
   <si>
-    <t>sadfasdfe</t>
+    <t>abcde</t>
+  </si>
+  <si>
+    <t>First camp</t>
+  </si>
+  <si>
+    <t>2023-11-26</t>
+  </si>
+  <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>2023-11-29</t>
+  </si>
+  <si>
+    <t>Nanyang</t>
+  </si>
+  <si>
+    <t>Halloween Camp</t>
+  </si>
+  <si>
+    <t>98d0e59407f946b7aed49150ceba8627</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,91 +411,91 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="H2">
+        <v>49</v>
+      </c>
+      <c r="I2">
         <v>10</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C2" t="b" s="0">
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="b">
         <v>1</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="I2" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="M2" t="b" s="0">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
